--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/WhiteCollarPromptTestcase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/WhiteCollarPromptTestcase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/git/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/student/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37028219921030111X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理学</t>
     <rPh sb="0" eb="1">
       <t>guan'l</t>
@@ -246,18 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Norelco99887722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productIndex_apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +309,22 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${QQUtils.genUnRegisterQQ()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,10 +797,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
@@ -811,19 +811,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -841,46 +841,46 @@
         <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
       </c>
       <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="Y2" s="3"/>
     </row>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
